--- a/asgn 2 differences.xlsx
+++ b/asgn 2 differences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\R\ETC3250\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA1C66F-944A-495A-8ED8-D9602746E60E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607CF629-CB4A-4BA4-9250-E08487C3D7AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{5EED0AC7-CB49-405D-A9FD-2555CE800809}"/>
+    <workbookView xWindow="-135" yWindow="-18135" windowWidth="29070" windowHeight="17670" xr2:uid="{5EED0AC7-CB49-405D-A9FD-2555CE800809}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA79920-4ED9-40D7-A34D-7DEF674DE9DE}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
